--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14353</v>
+        <v>14355</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36182271</v>
+        <v>36182831</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -19423,13 +19423,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>8535</v>
+        <v>8536</v>
       </c>
       <c r="D373" t="n">
         <v>1482</v>
       </c>
       <c r="E373" t="n">
-        <v>66999202</v>
+        <v>67197655</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>11171</v>
+        <v>11172</v>
       </c>
       <c r="D410" t="n">
         <v>2278</v>
       </c>
       <c r="E410" t="n">
-        <v>61106024</v>
+        <v>61116024</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185104187</v>
+        <v>185149928</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -21973,13 +21973,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="D423" t="n">
         <v>711</v>
       </c>
       <c r="E423" t="n">
-        <v>96781924</v>
+        <v>96968180</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61081</v>
+        <v>61090</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221013474</v>
+        <v>221086475</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163563</v>
+        <v>163573</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>711041391</v>
+        <v>711142146</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94598</v>
+        <v>94601</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652786730</v>
+        <v>652821322</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50631</v>
+        <v>50632</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>541935187</v>
+        <v>542018489</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -23452,13 +23452,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D452" t="n">
         <v>141</v>
       </c>
       <c r="E452" t="n">
-        <v>33362039</v>
+        <v>33405005</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15715</v>
+        <v>15716</v>
       </c>
       <c r="D466" t="n">
         <v>2329</v>
       </c>
       <c r="E466" t="n">
-        <v>28473279</v>
+        <v>28477979</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13530</v>
+        <v>13531</v>
       </c>
       <c r="D467" t="n">
         <v>2243</v>
       </c>
       <c r="E467" t="n">
-        <v>41352373</v>
+        <v>41369576</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55063170</v>
+        <v>55122222</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -26104,13 +26104,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D504" t="n">
         <v>17</v>
       </c>
       <c r="E504" t="n">
-        <v>7718509</v>
+        <v>7791001</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32955791</v>
+        <v>32962731</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
